--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam4-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam4-Itga2b.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.346040666666667</v>
+        <v>0.3732763333333333</v>
       </c>
       <c r="H2">
-        <v>7.038122</v>
+        <v>1.119829</v>
       </c>
       <c r="I2">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="J2">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.287649333333333</v>
+        <v>0.2303363333333333</v>
       </c>
       <c r="N2">
-        <v>3.862948</v>
+        <v>0.691009</v>
       </c>
       <c r="O2">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="P2">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="Q2">
-        <v>3.020877700406222</v>
+        <v>0.08597910194011112</v>
       </c>
       <c r="R2">
-        <v>27.187899303656</v>
+        <v>0.773811917461</v>
       </c>
       <c r="S2">
-        <v>0.1424393196654096</v>
+        <v>0.01494798043935924</v>
       </c>
       <c r="T2">
-        <v>0.1424393196654096</v>
+        <v>0.01494798043935924</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.346040666666667</v>
+        <v>0.3732763333333333</v>
       </c>
       <c r="H3">
-        <v>7.038122</v>
+        <v>1.119829</v>
       </c>
       <c r="I3">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="J3">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>13.868724</v>
       </c>
       <c r="O3">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264226</v>
       </c>
       <c r="P3">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264227</v>
       </c>
       <c r="Q3">
-        <v>10.84553016625867</v>
+        <v>1.725622147577333</v>
       </c>
       <c r="R3">
-        <v>97.60977149632801</v>
+        <v>15.530599328196</v>
       </c>
       <c r="S3">
-        <v>0.5113844688531501</v>
+        <v>0.3000097177762838</v>
       </c>
       <c r="T3">
-        <v>0.5113844688531501</v>
+        <v>0.3000097177762838</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.346040666666667</v>
+        <v>0.3732763333333333</v>
       </c>
       <c r="H4">
-        <v>7.038122</v>
+        <v>1.119829</v>
       </c>
       <c r="I4">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="J4">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9735329999999999</v>
+        <v>0.6235823333333333</v>
       </c>
       <c r="N4">
-        <v>2.920599</v>
+        <v>1.870747</v>
       </c>
       <c r="O4">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="P4">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="Q4">
-        <v>2.283948008342</v>
+        <v>0.2327685269181111</v>
       </c>
       <c r="R4">
-        <v>20.555532075078</v>
+        <v>2.094916742263</v>
       </c>
       <c r="S4">
-        <v>0.1076918805470526</v>
+        <v>0.0404681987687425</v>
       </c>
       <c r="T4">
-        <v>0.1076918805470526</v>
+        <v>0.0404681987687425</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6683169999999999</v>
+        <v>0.668317</v>
       </c>
       <c r="H5">
         <v>2.004951</v>
       </c>
       <c r="I5">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="J5">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.287649333333333</v>
+        <v>0.2303363333333333</v>
       </c>
       <c r="N5">
-        <v>3.862948</v>
+        <v>0.691009</v>
       </c>
       <c r="O5">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="P5">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="Q5">
-        <v>0.8605579395053332</v>
+        <v>0.1539376872843334</v>
       </c>
       <c r="R5">
-        <v>7.745021455547999</v>
+        <v>1.385439185559</v>
       </c>
       <c r="S5">
-        <v>0.04057671299282431</v>
+        <v>0.02676298642906529</v>
       </c>
       <c r="T5">
-        <v>0.04057671299282432</v>
+        <v>0.02676298642906529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6683169999999999</v>
+        <v>0.668317</v>
       </c>
       <c r="H6">
         <v>2.004951</v>
       </c>
       <c r="I6">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="J6">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>13.868724</v>
       </c>
       <c r="O6">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264226</v>
       </c>
       <c r="P6">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264227</v>
       </c>
       <c r="Q6">
         <v>3.089568005836</v>
@@ -818,10 +818,10 @@
         <v>27.806112052524</v>
       </c>
       <c r="S6">
-        <v>0.1456781798058619</v>
+        <v>0.537139852303591</v>
       </c>
       <c r="T6">
-        <v>0.1456781798058618</v>
+        <v>0.537139852303591</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6683169999999999</v>
+        <v>0.668317</v>
       </c>
       <c r="H7">
         <v>2.004951</v>
       </c>
       <c r="I7">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="J7">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9735329999999999</v>
+        <v>0.6235823333333333</v>
       </c>
       <c r="N7">
-        <v>2.920599</v>
+        <v>1.870747</v>
       </c>
       <c r="O7">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="P7">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="Q7">
-        <v>0.6506286539609999</v>
+        <v>0.4167506742663334</v>
       </c>
       <c r="R7">
-        <v>5.855657885648998</v>
+        <v>3.750756068397</v>
       </c>
       <c r="S7">
-        <v>0.03067820415654824</v>
+        <v>0.07245459404033031</v>
       </c>
       <c r="T7">
-        <v>0.03067820415654823</v>
+        <v>0.07245459404033031</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.06639399999999999</v>
+        <v>0.008629333333333334</v>
       </c>
       <c r="H8">
-        <v>0.199182</v>
+        <v>0.025888</v>
       </c>
       <c r="I8">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627913</v>
       </c>
       <c r="J8">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627911</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.287649333333333</v>
+        <v>0.2303363333333333</v>
       </c>
       <c r="N8">
-        <v>3.862948</v>
+        <v>0.691009</v>
       </c>
       <c r="O8">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="P8">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="Q8">
-        <v>0.08549218983733332</v>
+        <v>0.001987648999111111</v>
       </c>
       <c r="R8">
-        <v>0.769429708536</v>
+        <v>0.017888840992</v>
       </c>
       <c r="S8">
-        <v>0.004031096444420203</v>
+        <v>0.0003455646510441614</v>
       </c>
       <c r="T8">
-        <v>0.004031096444420204</v>
+        <v>0.0003455646510441613</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.06639399999999999</v>
+        <v>0.008629333333333334</v>
       </c>
       <c r="H9">
-        <v>0.199182</v>
+        <v>0.025888</v>
       </c>
       <c r="I9">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627913</v>
       </c>
       <c r="J9">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627911</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>13.868724</v>
       </c>
       <c r="O9">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264226</v>
       </c>
       <c r="P9">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264227</v>
       </c>
       <c r="Q9">
-        <v>0.306933353752</v>
+        <v>0.03989261410133334</v>
       </c>
       <c r="R9">
-        <v>2.762400183768</v>
+        <v>0.359033526912</v>
       </c>
       <c r="S9">
-        <v>0.01447240915617947</v>
+        <v>0.006935569246547852</v>
       </c>
       <c r="T9">
-        <v>0.01447240915617947</v>
+        <v>0.006935569246547852</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.06639399999999999</v>
+        <v>0.008629333333333334</v>
       </c>
       <c r="H10">
-        <v>0.199182</v>
+        <v>0.025888</v>
       </c>
       <c r="I10">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627913</v>
       </c>
       <c r="J10">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627911</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9735329999999999</v>
+        <v>0.6235823333333333</v>
       </c>
       <c r="N10">
-        <v>2.920599</v>
+        <v>1.870747</v>
       </c>
       <c r="O10">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="P10">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="Q10">
-        <v>0.06463675000199999</v>
+        <v>0.005381099815111112</v>
       </c>
       <c r="R10">
-        <v>0.5817307500179999</v>
+        <v>0.048429898336</v>
       </c>
       <c r="S10">
-        <v>0.003047728378553685</v>
+        <v>0.0009355363450358992</v>
       </c>
       <c r="T10">
-        <v>0.003047728378553685</v>
+        <v>0.0009355363450358991</v>
       </c>
     </row>
   </sheetData>
